--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>//dontCare</t>
   </si>
@@ -25,10 +25,16 @@
     <t>strTip</t>
   </si>
   <si>
-    <t>posx</t>
-  </si>
-  <si>
-    <t>posy</t>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>sizeX</t>
+  </si>
+  <si>
+    <t>sizeY</t>
   </si>
   <si>
     <t>int</t>
@@ -41,19 +47,19 @@
   </si>
   <si>
     <t>You are a great parent.
-You need to cook your children on time according to Social Clock.</t>
-  </si>
-  <si>
-    <t>Wash your children in the Study Sink to get Education.</t>
-  </si>
-  <si>
-    <t>Cook your children in the Working Pot for Career.</t>
-  </si>
-  <si>
-    <t>Roast your children in the Marriage Toaster to create new food.</t>
-  </si>
-  <si>
-    <t>Send your children to the Retire plate.
+You need to cook your children on time according to &lt;color=#fff984ff&gt;Social Clock&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Wash your children in the &lt;color=#fff984ff&gt;Study Sink&lt;/color&gt; to get &lt;color=#fff984ff&gt;Education&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Cook your children in the &lt;color=#fff984ff&gt;Working Pot&lt;/color&gt; for Career.</t>
+  </si>
+  <si>
+    <t>Roast your children in the &lt;color=#fff984ff&gt;Marriage Toaster&lt;/color&gt; to create new food.</t>
+  </si>
+  <si>
+    <t>Send your children to the &lt;color=#fff984ff&gt;Retire Plate&lt;/color&gt;.
 Let Social Clock taste them.</t>
   </si>
 </sst>
@@ -67,14 +73,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,48 +531,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,108 +585,102 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1038,15 +1034,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="2" max="2" width="105.363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1054,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1067,89 +1063,131 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:4">
-      <c r="A4" s="2">
+    <row r="4" ht="28" spans="1:6">
+      <c r="A4" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>-200</v>
+        <v>-680</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>-200</v>
+        <v>-580</v>
       </c>
       <c r="D5">
-        <v>-100</v>
+        <v>-250</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-200</v>
+        <v>-250</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="D7">
         <v>-200</v>
       </c>
+      <c r="E7">
+        <v>380</v>
+      </c>
+      <c r="F7">
+        <v>580</v>
+      </c>
     </row>
-    <row r="8" ht="28" spans="1:4">
+    <row r="8" ht="28" spans="1:6">
       <c r="A8">
         <v>1005</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D8">
-        <v>-300</v>
+        <v>-350</v>
+      </c>
+      <c r="E8">
+        <v>380</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23680" windowHeight="8330"/>
+    <workbookView windowWidth="19920" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>//dontCare</t>
   </si>
@@ -61,6 +61,9 @@
   <si>
     <t>Send your children to the &lt;color=#fff984ff&gt;Retire Plate&lt;/color&gt;.
 Let Social Clock taste them.</t>
+  </si>
+  <si>
+    <t>The more strict you obey the Social Clock, the more score you can get.</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="105.363636363636" customWidth="1"/>
   </cols>
@@ -1118,10 +1121,10 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>-580</v>
+        <v>-496</v>
       </c>
       <c r="D5">
-        <v>-250</v>
+        <v>-215</v>
       </c>
       <c r="E5">
         <v>400</v>
@@ -1138,13 +1141,13 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>-250</v>
+        <v>-206</v>
       </c>
       <c r="E6">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -1158,16 +1161,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>520</v>
+        <v>679</v>
       </c>
       <c r="D7">
         <v>-200</v>
       </c>
       <c r="E7">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F7">
-        <v>580</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:6">
@@ -1178,15 +1181,35 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>800</v>
+        <v>307</v>
       </c>
       <c r="D8">
-        <v>-350</v>
+        <v>202</v>
       </c>
       <c r="E8">
         <v>380</v>
       </c>
       <c r="F8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>-456</v>
+      </c>
+      <c r="D9">
+        <v>517</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
         <v>300</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10570"/>
+    <workbookView windowWidth="21510" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>//dontCare</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>sizeY</t>
+  </si>
+  <si>
+    <t>posXtext</t>
+  </si>
+  <si>
+    <t>posYtext</t>
   </si>
   <si>
     <t>int</t>
@@ -63,7 +69,7 @@
 Let Social Clock taste them.</t>
   </si>
   <si>
-    <t>The more strict you obey the Social Clock, the more score you can get.</t>
+    <t>Obey the Social Clock and Create more babys to get more &lt;color=#fff984ff&gt;Score.&lt;/color&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="105.363636363636" customWidth="1"/>
   </cols>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,33 +1078,45 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:6">
+    <row r="4" ht="28" spans="1:8">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>-680</v>
@@ -1112,13 +1130,19 @@
       <c r="F4">
         <v>400</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>350</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>-496</v>
@@ -1132,13 +1156,19 @@
       <c r="F5">
         <v>400</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>320</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>114</v>
@@ -1152,13 +1182,19 @@
       <c r="F6">
         <v>500</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>320</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>679</v>
@@ -1172,13 +1208,19 @@
       <c r="F7">
         <v>500</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>320</v>
+      </c>
     </row>
-    <row r="8" ht="28" spans="1:6">
+    <row r="8" ht="28" spans="1:8">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>307</v>
@@ -1192,13 +1234,19 @@
       <c r="F8">
         <v>300</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>-456</v>
@@ -1211,6 +1259,12 @@
       </c>
       <c r="F9">
         <v>300</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21510" windowHeight="10570"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>//dontCare</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>posYtext</t>
+  </si>
+  <si>
+    <t>picGroup</t>
   </si>
   <si>
     <t>int</t>
@@ -59,10 +62,10 @@
     <t>Wash your children in the &lt;color=#fff984ff&gt;Study Sink&lt;/color&gt; to get &lt;color=#fff984ff&gt;Education&lt;/color&gt;.</t>
   </si>
   <si>
-    <t>Cook your children in the &lt;color=#fff984ff&gt;Working Pot&lt;/color&gt; for Career.</t>
-  </si>
-  <si>
-    <t>Roast your children in the &lt;color=#fff984ff&gt;Marriage Toaster&lt;/color&gt; to create new food.</t>
+    <t>Cook your children in the &lt;color=#fff984ff&gt;Working Pot&lt;/color&gt; for &lt;color=#fff984ff&gt;Career&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Roast your children in the &lt;color=#fff984ff&gt;Marriage Toaster&lt;/color&gt; to create new child.</t>
   </si>
   <si>
     <t>Send your children to the &lt;color=#fff984ff&gt;Retire Plate&lt;/color&gt;.
@@ -1043,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="105.363636363636" customWidth="1"/>
   </cols>
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1084,39 +1087,45 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" ht="28" spans="1:8">
+    <row r="4" ht="28" spans="1:9">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>-680</v>
@@ -1136,13 +1145,16 @@
       <c r="H4">
         <v>350</v>
       </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>-496</v>
@@ -1162,13 +1174,16 @@
       <c r="H5">
         <v>320</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>114</v>
@@ -1188,13 +1203,16 @@
       <c r="H6">
         <v>320</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>679</v>
@@ -1214,13 +1232,16 @@
       <c r="H7">
         <v>320</v>
       </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" ht="28" spans="1:8">
+    <row r="8" ht="28" spans="1:9">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>307</v>
@@ -1240,13 +1261,16 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>-456</v>
@@ -1265,6 +1289,9 @@
       </c>
       <c r="H9">
         <v>250</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="19350" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>//dontCare</t>
   </si>
@@ -65,11 +65,19 @@
     <t>Cook your children in the &lt;color=#fff984ff&gt;Working Pot&lt;/color&gt; for &lt;color=#fff984ff&gt;Career&lt;/color&gt;.</t>
   </si>
   <si>
+    <t>Different &lt;color=#fff984ff&gt;Working Pots&lt;/color&gt; will have 
+different &lt;color=#fff984ff&gt;age requirement&lt;/color&gt; and &lt;color=#fff984ff&gt; educational requirement&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Different &lt;color=#fff984ff&gt;Working Pots&lt;/color&gt; will have 
+different &lt;color=#fff984ff&gt;job efficiency&lt;/color&gt;.</t>
+  </si>
+  <si>
     <t>Roast your children in the &lt;color=#fff984ff&gt;Marriage Toaster&lt;/color&gt; to create new child.</t>
   </si>
   <si>
     <t>Send your children to the &lt;color=#fff984ff&gt;Retire Plate&lt;/color&gt;.
-Let Social Clock taste them.</t>
+Let Social Clock tastes them.</t>
   </si>
   <si>
     <t>Obey the Social Clock and Create more babys to get more &lt;color=#fff984ff&gt;Score.&lt;/color&gt;.</t>
@@ -1046,15 +1054,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="105.363636363636" customWidth="1"/>
+    <col min="2" max="2" width="163.545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1189,13 +1197,13 @@
         <v>114</v>
       </c>
       <c r="D6">
-        <v>-206</v>
+        <v>-225</v>
       </c>
       <c r="E6">
         <v>550</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1207,24 +1215,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+    <row r="7" ht="28" spans="1:9">
+      <c r="A7" s="1">
         <v>1004</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7">
-        <v>679</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>-200</v>
+        <v>-225</v>
       </c>
       <c r="E7">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1233,64 +1241,122 @@
         <v>320</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:9">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>307</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>202</v>
+        <v>-225</v>
       </c>
       <c r="E8">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>-456</v>
+        <v>679</v>
       </c>
       <c r="D9">
-        <v>517</v>
+        <v>-200</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>320</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:9">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>307</v>
+      </c>
+      <c r="D10">
+        <v>202</v>
+      </c>
+      <c r="E10">
+        <v>380</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>-456</v>
+      </c>
+      <c r="D11">
+        <v>517</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>250</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19350" windowHeight="11460"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>//dontCare</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>This is a game discussing about &lt;color=#fff984ff&gt;Social Clock&lt;/color&gt;, especially in &lt;color=#fff984ff&gt;East Asia&lt;/color&gt;.</t>
   </si>
   <si>
     <t>You are a great parent.
@@ -76,11 +79,20 @@
     <t>Roast your children in the &lt;color=#fff984ff&gt;Marriage Toaster&lt;/color&gt; to create new child.</t>
   </si>
   <si>
+    <t>For example, this means a &lt;color=#fff984ff&gt;man&lt;/color&gt; 
+who is from &lt;color=#fff984ff&gt;20&lt;/color&gt; to &lt;color=#fff984ff&gt;48&lt;/color&gt; years old,
+and &lt;color=#fff984ff&gt;Education Level&lt;/color&gt; is at least &lt;color=#fff984ff&gt;1&lt;/color&gt;,
+&lt;color=#fff984ff&gt;Career Level&lt;/color&gt; is at least &lt;color=#fff984ff&gt;2&lt;/color&gt;,
+is needed.</t>
+  </si>
+  <si>
     <t>Send your children to the &lt;color=#fff984ff&gt;Retire Plate&lt;/color&gt;.
 Let Social Clock tastes them.</t>
   </si>
   <si>
-    <t>Obey the Social Clock and Create more babys to get more &lt;color=#fff984ff&gt;Score.&lt;/color&gt;.</t>
+    <t>Obey the Social Clock and Create more babys to get more &lt;color=#fff984ff&gt;Score&lt;/color&gt;.
+And you can click the button 
+to adjust &lt;color=#fff984ff&gt;Speed&lt;/color&gt; if you want.</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1128,47 +1140,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4">
-        <v>-680</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="28" spans="1:9">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>-496</v>
+        <v>-680</v>
       </c>
       <c r="D5">
-        <v>-215</v>
+        <v>120</v>
       </c>
       <c r="E5">
         <v>400</v>
@@ -1180,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1194,16 +1206,16 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>-496</v>
       </c>
       <c r="D6">
-        <v>-225</v>
+        <v>-215</v>
       </c>
       <c r="E6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F6">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1212,14 +1224,14 @@
         <v>320</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7">
@@ -1241,7 +1253,7 @@
         <v>320</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:9">
@@ -1270,27 +1282,27 @@
         <v>320</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="28" spans="1:9">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>679</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>-200</v>
+        <v>-225</v>
       </c>
       <c r="E9">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1299,64 +1311,122 @@
         <v>320</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10">
-        <v>307</v>
+        <v>679</v>
       </c>
       <c r="D10">
-        <v>202</v>
+        <v>-200</v>
       </c>
       <c r="E10">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="I10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" ht="70" spans="1:9">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:9">
+      <c r="A12" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>307</v>
+      </c>
+      <c r="D12">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>380</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" ht="56" spans="1:9">
+      <c r="A13" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
         <v>-456</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>517</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>1000</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>300</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>250</v>
-      </c>
-      <c r="I11">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>180</v>
+      </c>
+      <c r="I13">
         <v>-1</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>//dontCare</t>
   </si>
@@ -46,6 +46,9 @@
     <t>picGroup</t>
   </si>
   <si>
+    <t>fontSize</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -55,7 +58,8 @@
     <t>float</t>
   </si>
   <si>
-    <t>This is a game discussing about &lt;color=#fff984ff&gt;Social Clock&lt;/color&gt;, especially in &lt;color=#fff984ff&gt;East Asia&lt;/color&gt;.</t>
+    <t>This is a game discussing about &lt;color=#fff984ff&gt;Social Clock&lt;/color&gt;, 
+especially in &lt;color=#fff984ff&gt;East Asia&lt;/color&gt;.</t>
   </si>
   <si>
     <t>You are a great parent.
@@ -708,12 +712,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,9 +1073,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1082,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1110,42 +1117,48 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="28" spans="1:10">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1168,13 +1181,16 @@
       <c r="I4">
         <v>-1</v>
       </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" ht="28" spans="1:9">
+    <row r="5" ht="28" spans="1:10">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>-680</v>
@@ -1197,13 +1213,16 @@
       <c r="I5">
         <v>-1</v>
       </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>-496</v>
@@ -1226,13 +1245,16 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>114</v>
@@ -1255,13 +1277,16 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" ht="28" spans="1:9">
+    <row r="8" ht="28" spans="1:10">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C8">
         <v>114</v>
@@ -1284,13 +1309,16 @@
       <c r="I8">
         <v>2</v>
       </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" ht="28" spans="1:9">
+    <row r="9" ht="28" spans="1:10">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C9">
         <v>114</v>
@@ -1313,13 +1341,16 @@
       <c r="I9">
         <v>3</v>
       </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>679</v>
@@ -1342,13 +1373,16 @@
       <c r="I10">
         <v>-1</v>
       </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" ht="70" spans="1:9">
+    <row r="11" ht="70" spans="1:10">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1371,13 +1405,16 @@
       <c r="I11">
         <v>4</v>
       </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" ht="28" spans="1:9">
+    <row r="12" ht="28" spans="1:10">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C12">
         <v>307</v>
@@ -1400,13 +1437,16 @@
       <c r="I12">
         <v>-1</v>
       </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" ht="56" spans="1:9">
+    <row r="13" ht="56" spans="1:10">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C13">
         <v>-456</v>
@@ -1428,6 +1468,9 @@
       </c>
       <c r="I13">
         <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
